--- a/5.24_5.25/城市数据.xlsx
+++ b/5.24_5.25/城市数据.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F156824F-532E-4479-9461-ECD978CEF46D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -177,7 +176,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -498,22 +497,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +550,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -594,7 +593,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -637,7 +636,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -680,7 +679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -723,7 +722,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -766,7 +765,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -809,7 +808,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -852,7 +851,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -895,7 +894,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -938,7 +937,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -981,7 +980,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1024,7 +1023,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1067,7 +1066,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1110,7 +1109,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1153,7 +1152,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1196,7 +1195,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1282,7 +1281,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1325,7 +1324,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1368,7 +1367,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1411,7 +1410,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
